--- a/database/industries/lastic/parta/cost/quarterly.xlsx
+++ b/database/industries/lastic/parta/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\parta\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\parta\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C476ED1-31A9-462A-A75E-1EC853155F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07ABA92F-9AB7-49DC-834C-C60A17183DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="60">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,6 +34,21 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -52,6 +67,9 @@
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>دستمزد مستقیم تولید</t>
   </si>
   <si>
@@ -98,9 +116,6 @@
   </si>
   <si>
     <t>تن</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>استیل کورد</t>
@@ -640,16 +655,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I167"/>
+  <dimension ref="B1:N167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -658,8 +673,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -670,8 +690,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -682,8 +707,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -692,8 +722,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -704,8 +739,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -716,8 +756,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -726,8 +771,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -748,8 +798,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -758,316 +823,531 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="9">
+      <c r="E10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="9">
         <v>8329870</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>2801990</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>3978843</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>4733972</v>
       </c>
-      <c r="I10" s="9">
-        <v>4716335</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N10" s="9">
+        <v>4450811</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="11">
+      <c r="E11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="11">
         <v>471998</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>155709</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>291023</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>250166</v>
       </c>
-      <c r="I11" s="11">
-        <v>251347</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N11" s="11">
+        <v>251445</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="9">
+      <c r="E12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="9">
         <v>853789</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>418079</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>477482</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>478429</v>
       </c>
-      <c r="I12" s="9">
-        <v>414179</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N12" s="9">
+        <v>423311</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="13">
+      <c r="E13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="13">
         <v>9655657</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>3375778</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>4747348</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>5462567</v>
       </c>
-      <c r="I13" s="13">
-        <v>5381861</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N13" s="13">
+        <v>5125567</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="13">
+      <c r="E15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="13">
         <v>9655657</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>3375778</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>4747348</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>5462567</v>
       </c>
-      <c r="I15" s="13">
-        <v>5381861</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N15" s="13">
+        <v>5125567</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="9">
+      <c r="E16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="9">
         <v>-440862</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>351960</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>-337409</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>279243</v>
       </c>
-      <c r="I16" s="9">
-        <v>-56036</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N16" s="9">
+        <v>-26267</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="11">
-        <v>0</v>
-      </c>
-      <c r="F17" s="11">
-        <v>0</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="15">
+      <c r="E18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="15">
         <v>9214795</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>3727738</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>4409939</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>5741810</v>
       </c>
-      <c r="I18" s="15">
-        <v>5325825</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N18" s="15">
+        <v>5099300</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="11">
+      <c r="E19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="11">
         <v>664228</v>
       </c>
-      <c r="F19" s="11">
+      <c r="K19" s="11">
         <v>1313784</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>986459</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>802829</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>918476</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="9">
+      <c r="E20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="9">
         <v>-1313784</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-986459</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-802829</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-918476</v>
       </c>
-      <c r="I20" s="9">
-        <v>-738615</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N20" s="9">
+        <v>-729077</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
-      <c r="E21" s="13">
+      <c r="E21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="13">
         <v>8565239</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>4055063</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>4593569</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>5626163</v>
       </c>
-      <c r="I21" s="13">
-        <v>5505686</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N21" s="13">
+        <v>5288699</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="9">
-        <v>0</v>
-      </c>
-      <c r="F22" s="9">
-        <v>0</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0</v>
-      </c>
-      <c r="I22" s="9">
+      <c r="E22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
         <v>401291</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
-      <c r="E23" s="13">
+      <c r="E23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="13">
         <v>8565239</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>4055063</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>4593569</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>5626163</v>
       </c>
-      <c r="I23" s="13">
-        <v>5906977</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N23" s="13">
+        <v>5689990</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1076,8 +1356,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1086,8 +1371,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1096,10 +1386,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1118,8 +1413,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1128,130 +1438,210 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="9">
+        <v>15</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" s="9">
         <v>609</v>
       </c>
-      <c r="G29" s="9">
+      <c r="L29" s="9">
         <v>1262</v>
       </c>
-      <c r="H29" s="9">
+      <c r="M29" s="9">
         <v>1185</v>
       </c>
-      <c r="I29" s="9">
+      <c r="N29" s="9">
         <v>1858</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="11">
+        <v>15</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="11">
         <v>306</v>
       </c>
-      <c r="G30" s="11">
+      <c r="L30" s="11">
         <v>549</v>
       </c>
-      <c r="H30" s="11">
+      <c r="M30" s="11">
         <v>304</v>
       </c>
-      <c r="I30" s="11">
+      <c r="N30" s="11">
         <v>192</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="9">
+        <v>15</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" s="9">
         <v>332</v>
       </c>
-      <c r="G31" s="9">
+      <c r="L31" s="9">
         <v>145</v>
       </c>
-      <c r="H31" s="9">
+      <c r="M31" s="9">
         <v>23</v>
       </c>
-      <c r="I31" s="9">
+      <c r="N31" s="9">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" s="11">
+        <v>15</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="11">
         <v>663</v>
       </c>
-      <c r="G32" s="11">
+      <c r="L32" s="11">
         <v>549</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>370</v>
       </c>
-      <c r="I32" s="11">
+      <c r="N32" s="11">
         <v>784</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" s="9">
+        <v>15</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" s="9">
         <v>738</v>
       </c>
-      <c r="G33" s="9">
+      <c r="L33" s="9">
         <v>1969</v>
       </c>
-      <c r="H33" s="9">
+      <c r="M33" s="9">
         <v>1740</v>
       </c>
-      <c r="I33" s="9">
+      <c r="N33" s="9">
         <v>1837</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1259,19 +1649,34 @@
         <v>0</v>
       </c>
       <c r="F34" s="13">
+        <v>0</v>
+      </c>
+      <c r="G34" s="13">
+        <v>0</v>
+      </c>
+      <c r="H34" s="13">
+        <v>0</v>
+      </c>
+      <c r="I34" s="13">
+        <v>0</v>
+      </c>
+      <c r="J34" s="13">
+        <v>0</v>
+      </c>
+      <c r="K34" s="13">
         <v>2648</v>
       </c>
-      <c r="G34" s="13">
+      <c r="L34" s="13">
         <v>4474</v>
       </c>
-      <c r="H34" s="13">
+      <c r="M34" s="13">
         <v>3622</v>
       </c>
-      <c r="I34" s="13">
+      <c r="N34" s="13">
         <v>4752</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1280,8 +1685,13 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1290,8 +1700,13 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1300,10 +1715,15 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -1322,8 +1742,23 @@
       <c r="I38" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1332,150 +1767,245 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D40" s="9"/>
-      <c r="E40" s="9">
+      <c r="E40" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" s="9">
         <v>9343</v>
       </c>
-      <c r="F40" s="9">
+      <c r="K40" s="9">
         <v>2629</v>
       </c>
-      <c r="G40" s="9">
+      <c r="L40" s="9">
         <v>3510</v>
       </c>
-      <c r="H40" s="9">
+      <c r="M40" s="9">
         <v>4481</v>
       </c>
-      <c r="I40" s="9">
+      <c r="N40" s="9">
         <v>3436</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D41" s="11"/>
-      <c r="E41" s="11">
+      <c r="E41" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="11">
         <v>564</v>
       </c>
-      <c r="F41" s="11">
+      <c r="K41" s="11">
         <v>578</v>
       </c>
-      <c r="G41" s="11">
-        <v>0</v>
-      </c>
-      <c r="H41" s="11">
+      <c r="L41" s="11">
+        <v>0</v>
+      </c>
+      <c r="M41" s="11">
         <v>136</v>
       </c>
-      <c r="I41" s="11">
+      <c r="N41" s="11">
         <v>230</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D42" s="9"/>
-      <c r="E42" s="9">
+      <c r="E42" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" s="9">
         <v>1290</v>
       </c>
-      <c r="F42" s="9">
+      <c r="K42" s="9">
         <v>522</v>
       </c>
-      <c r="G42" s="9">
+      <c r="L42" s="9">
         <v>357</v>
       </c>
-      <c r="H42" s="9">
+      <c r="M42" s="9">
         <v>564</v>
       </c>
-      <c r="I42" s="9">
+      <c r="N42" s="9">
         <v>505</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D43" s="11"/>
-      <c r="E43" s="11">
+      <c r="E43" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" s="11">
         <v>5745</v>
       </c>
-      <c r="F43" s="11">
+      <c r="K43" s="11">
         <v>1462</v>
       </c>
-      <c r="G43" s="11">
+      <c r="L43" s="11">
         <v>1660</v>
       </c>
-      <c r="H43" s="11">
+      <c r="M43" s="11">
         <v>2248</v>
       </c>
-      <c r="I43" s="11">
+      <c r="N43" s="11">
         <v>1925</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D44" s="9"/>
-      <c r="E44" s="9">
+      <c r="E44" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" s="9">
         <v>4032</v>
       </c>
-      <c r="F44" s="9">
+      <c r="K44" s="9">
         <v>1259</v>
       </c>
-      <c r="G44" s="9">
+      <c r="L44" s="9">
         <v>1248</v>
       </c>
-      <c r="H44" s="9">
+      <c r="M44" s="9">
         <v>1894</v>
       </c>
-      <c r="I44" s="9">
+      <c r="N44" s="9">
         <v>1406</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13">
+        <v>0</v>
+      </c>
+      <c r="F45" s="13">
+        <v>0</v>
+      </c>
+      <c r="G45" s="13">
+        <v>0</v>
+      </c>
+      <c r="H45" s="13">
+        <v>0</v>
+      </c>
+      <c r="I45" s="13">
+        <v>0</v>
+      </c>
+      <c r="J45" s="13">
         <v>20974</v>
       </c>
-      <c r="F45" s="13">
+      <c r="K45" s="13">
         <v>6450</v>
       </c>
-      <c r="G45" s="13">
+      <c r="L45" s="13">
         <v>6775</v>
       </c>
-      <c r="H45" s="13">
+      <c r="M45" s="13">
         <v>9323</v>
       </c>
-      <c r="I45" s="13">
+      <c r="N45" s="13">
         <v>7502</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1484,8 +2014,13 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1494,8 +2029,13 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1504,10 +2044,15 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -1526,8 +2071,23 @@
       <c r="I49" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1536,150 +2096,245 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D51" s="9"/>
-      <c r="E51" s="9">
+      <c r="E51" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J51" s="9">
         <v>13834</v>
       </c>
-      <c r="F51" s="9">
+      <c r="K51" s="9">
         <v>-283</v>
       </c>
-      <c r="G51" s="9">
+      <c r="L51" s="9">
         <v>3587</v>
       </c>
-      <c r="H51" s="9">
+      <c r="M51" s="9">
         <v>3808</v>
       </c>
-      <c r="I51" s="9">
+      <c r="N51" s="9">
         <v>3708</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D52" s="11"/>
-      <c r="E52" s="11">
+      <c r="E52" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J52" s="11">
         <v>748</v>
       </c>
-      <c r="F52" s="11">
+      <c r="K52" s="11">
         <v>261</v>
       </c>
-      <c r="G52" s="11">
+      <c r="L52" s="11">
         <v>245</v>
       </c>
-      <c r="H52" s="11">
+      <c r="M52" s="11">
         <v>248</v>
       </c>
-      <c r="I52" s="11">
+      <c r="N52" s="11">
         <v>262</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D53" s="9"/>
-      <c r="E53" s="9">
+      <c r="E53" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53" s="9">
         <v>1478</v>
       </c>
-      <c r="F53" s="9">
+      <c r="K53" s="9">
         <v>307</v>
       </c>
-      <c r="G53" s="9">
+      <c r="L53" s="9">
         <v>479</v>
       </c>
-      <c r="H53" s="9">
+      <c r="M53" s="9">
         <v>506</v>
       </c>
-      <c r="I53" s="9">
+      <c r="N53" s="9">
         <v>485</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D54" s="11"/>
-      <c r="E54" s="11">
+      <c r="E54" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54" s="11">
         <v>6062</v>
       </c>
-      <c r="F54" s="11">
+      <c r="K54" s="11">
         <v>891</v>
       </c>
-      <c r="G54" s="11">
+      <c r="L54" s="11">
         <v>1839</v>
       </c>
-      <c r="H54" s="11">
+      <c r="M54" s="11">
         <v>1834</v>
       </c>
-      <c r="I54" s="11">
+      <c r="N54" s="11">
         <v>1807</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D55" s="9"/>
-      <c r="E55" s="9">
+      <c r="E55" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" s="9">
         <v>5394</v>
       </c>
-      <c r="F55" s="9">
+      <c r="K55" s="9">
         <v>214</v>
       </c>
-      <c r="G55" s="9">
+      <c r="L55" s="9">
         <v>1477</v>
       </c>
-      <c r="H55" s="9">
+      <c r="M55" s="9">
         <v>1797</v>
       </c>
-      <c r="I55" s="9">
+      <c r="N55" s="9">
         <v>1363</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
+        <v>0</v>
+      </c>
+      <c r="F56" s="13">
+        <v>0</v>
+      </c>
+      <c r="G56" s="13">
+        <v>0</v>
+      </c>
+      <c r="H56" s="13">
+        <v>0</v>
+      </c>
+      <c r="I56" s="13">
+        <v>0</v>
+      </c>
+      <c r="J56" s="13">
         <v>27516</v>
       </c>
-      <c r="F56" s="13">
+      <c r="K56" s="13">
         <v>1390</v>
       </c>
-      <c r="G56" s="13">
+      <c r="L56" s="13">
         <v>7627</v>
       </c>
-      <c r="H56" s="13">
+      <c r="M56" s="13">
         <v>8193</v>
       </c>
-      <c r="I56" s="13">
+      <c r="N56" s="13">
         <v>7625</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1688,8 +2343,13 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1698,8 +2358,13 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1708,10 +2373,15 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -1730,8 +2400,23 @@
       <c r="I60" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1740,150 +2425,245 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D62" s="9"/>
-      <c r="E62" s="9">
+      <c r="E62" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J62" s="9">
         <v>609</v>
       </c>
-      <c r="F62" s="9">
+      <c r="K62" s="9">
         <v>1262</v>
       </c>
-      <c r="G62" s="9">
+      <c r="L62" s="9">
         <v>1185</v>
       </c>
-      <c r="H62" s="9">
+      <c r="M62" s="9">
         <v>1858</v>
       </c>
-      <c r="I62" s="9">
+      <c r="N62" s="9">
         <v>1586</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D63" s="11"/>
-      <c r="E63" s="11">
+      <c r="E63" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J63" s="11">
         <v>306</v>
       </c>
-      <c r="F63" s="11">
+      <c r="K63" s="11">
         <v>549</v>
       </c>
-      <c r="G63" s="11">
+      <c r="L63" s="11">
         <v>304</v>
       </c>
-      <c r="H63" s="11">
+      <c r="M63" s="11">
         <v>192</v>
       </c>
-      <c r="I63" s="11">
+      <c r="N63" s="11">
         <v>160</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D64" s="9"/>
-      <c r="E64" s="9">
+      <c r="E64" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J64" s="9">
         <v>332</v>
       </c>
-      <c r="F64" s="9">
+      <c r="K64" s="9">
         <v>145</v>
       </c>
-      <c r="G64" s="9">
+      <c r="L64" s="9">
         <v>23</v>
       </c>
-      <c r="H64" s="9">
+      <c r="M64" s="9">
         <v>81</v>
       </c>
-      <c r="I64" s="9">
+      <c r="N64" s="9">
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D65" s="11"/>
-      <c r="E65" s="11">
+      <c r="E65" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J65" s="11">
         <v>663</v>
       </c>
-      <c r="F65" s="11">
+      <c r="K65" s="11">
         <v>549</v>
       </c>
-      <c r="G65" s="11">
+      <c r="L65" s="11">
         <v>370</v>
       </c>
-      <c r="H65" s="11">
+      <c r="M65" s="11">
         <v>784</v>
       </c>
-      <c r="I65" s="11">
+      <c r="N65" s="11">
         <v>902</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D66" s="9"/>
-      <c r="E66" s="9">
+      <c r="E66" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J66" s="9">
         <v>738</v>
       </c>
-      <c r="F66" s="9">
+      <c r="K66" s="9">
         <v>1969</v>
       </c>
-      <c r="G66" s="9">
+      <c r="L66" s="9">
         <v>1740</v>
       </c>
-      <c r="H66" s="9">
+      <c r="M66" s="9">
         <v>1837</v>
       </c>
-      <c r="I66" s="9">
+      <c r="N66" s="9">
         <v>1880</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="13">
+        <v>0</v>
+      </c>
+      <c r="F67" s="13">
+        <v>0</v>
+      </c>
+      <c r="G67" s="13">
+        <v>0</v>
+      </c>
+      <c r="H67" s="13">
+        <v>0</v>
+      </c>
+      <c r="I67" s="13">
+        <v>0</v>
+      </c>
+      <c r="J67" s="13">
         <v>2648</v>
       </c>
-      <c r="F67" s="13">
+      <c r="K67" s="13">
         <v>4474</v>
       </c>
-      <c r="G67" s="13">
+      <c r="L67" s="13">
         <v>3622</v>
       </c>
-      <c r="H67" s="13">
+      <c r="M67" s="13">
         <v>4752</v>
       </c>
-      <c r="I67" s="13">
+      <c r="N67" s="13">
         <v>4629</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1892,8 +2672,13 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1902,8 +2687,13 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1912,10 +2702,15 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -1934,8 +2729,23 @@
       <c r="I71" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J71" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M71" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1944,130 +2754,210 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F73" s="9">
+        <v>15</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K73" s="9">
         <v>293907</v>
       </c>
-      <c r="G73" s="9">
+      <c r="L73" s="9">
         <v>586716</v>
       </c>
-      <c r="H73" s="9">
+      <c r="M73" s="9">
         <v>585257</v>
       </c>
-      <c r="I73" s="9">
+      <c r="N73" s="9">
         <v>934875</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F74" s="11">
+        <v>15</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K74" s="11">
         <v>108173</v>
       </c>
-      <c r="G74" s="11">
+      <c r="L74" s="11">
         <v>242990</v>
       </c>
-      <c r="H74" s="11">
+      <c r="M74" s="11">
         <v>125580</v>
       </c>
-      <c r="I74" s="11">
+      <c r="N74" s="11">
         <v>79754</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F75" s="9">
+        <v>15</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K75" s="9">
         <v>772090</v>
       </c>
-      <c r="G75" s="9">
+      <c r="L75" s="9">
         <v>213594</v>
       </c>
-      <c r="H75" s="9">
+      <c r="M75" s="9">
         <v>43264</v>
       </c>
-      <c r="I75" s="9">
+      <c r="N75" s="9">
         <v>124505</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F76" s="11">
+        <v>15</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K76" s="11">
         <v>184855</v>
       </c>
-      <c r="G76" s="11">
+      <c r="L76" s="11">
         <v>157392</v>
       </c>
-      <c r="H76" s="11">
+      <c r="M76" s="11">
         <v>138506</v>
       </c>
-      <c r="I76" s="11">
+      <c r="N76" s="11">
         <v>338719</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F77" s="9">
+        <v>15</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K77" s="9">
         <v>123258</v>
       </c>
-      <c r="G77" s="9">
+      <c r="L77" s="9">
         <v>491578</v>
       </c>
-      <c r="H77" s="9">
+      <c r="M77" s="9">
         <v>391803</v>
       </c>
-      <c r="I77" s="9">
+      <c r="N77" s="9">
         <v>634212</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
@@ -2075,19 +2965,34 @@
         <v>0</v>
       </c>
       <c r="F78" s="13">
+        <v>0</v>
+      </c>
+      <c r="G78" s="13">
+        <v>0</v>
+      </c>
+      <c r="H78" s="13">
+        <v>0</v>
+      </c>
+      <c r="I78" s="13">
+        <v>0</v>
+      </c>
+      <c r="J78" s="13">
+        <v>0</v>
+      </c>
+      <c r="K78" s="13">
         <v>1482283</v>
       </c>
-      <c r="G78" s="13">
+      <c r="L78" s="13">
         <v>1692270</v>
       </c>
-      <c r="H78" s="13">
+      <c r="M78" s="13">
         <v>1284410</v>
       </c>
-      <c r="I78" s="13">
+      <c r="N78" s="13">
         <v>2112065</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2096,8 +3001,13 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2106,8 +3016,13 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2116,10 +3031,15 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -2138,8 +3058,23 @@
       <c r="I82" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M82" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N82" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2148,150 +3083,245 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C84" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J84" s="9">
+        <v>3470288</v>
+      </c>
+      <c r="K84" s="9">
+        <v>1266892</v>
+      </c>
+      <c r="L84" s="9">
+        <v>1822364</v>
+      </c>
+      <c r="M84" s="9">
+        <v>2455625</v>
+      </c>
+      <c r="N84" s="9">
+        <v>1809322</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B85" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I85" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J85" s="11">
+        <v>219017</v>
+      </c>
+      <c r="K85" s="11">
+        <v>287788</v>
+      </c>
+      <c r="L85" s="11">
+        <v>0</v>
+      </c>
+      <c r="M85" s="11">
+        <v>78919</v>
+      </c>
+      <c r="N85" s="11">
+        <v>113035</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B86" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J86" s="9">
+        <v>1647883</v>
+      </c>
+      <c r="K86" s="9">
+        <v>812534</v>
+      </c>
+      <c r="L86" s="9">
+        <v>598365</v>
+      </c>
+      <c r="M86" s="9">
+        <v>948561</v>
+      </c>
+      <c r="N86" s="9">
+        <v>864464</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B87" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I87" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J87" s="11">
+        <v>1315331</v>
+      </c>
+      <c r="K87" s="11">
+        <v>426228</v>
+      </c>
+      <c r="L87" s="11">
+        <v>579413</v>
+      </c>
+      <c r="M87" s="11">
+        <v>982531</v>
+      </c>
+      <c r="N87" s="11">
+        <v>757352</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B88" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9">
-        <v>3470288</v>
-      </c>
-      <c r="F84" s="9">
-        <v>1266892</v>
-      </c>
-      <c r="G84" s="9">
-        <v>1822364</v>
-      </c>
-      <c r="H84" s="9">
-        <v>2455625</v>
-      </c>
-      <c r="I84" s="9">
-        <v>2415777</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B85" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11">
-        <v>219017</v>
-      </c>
-      <c r="F85" s="11">
-        <v>287788</v>
-      </c>
-      <c r="G85" s="11">
-        <v>0</v>
-      </c>
-      <c r="H85" s="11">
-        <v>78919</v>
-      </c>
-      <c r="I85" s="11">
-        <v>112976</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B86" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9">
-        <v>1647883</v>
-      </c>
-      <c r="F86" s="9">
-        <v>812534</v>
-      </c>
-      <c r="G86" s="9">
-        <v>598365</v>
-      </c>
-      <c r="H86" s="9">
-        <v>948561</v>
-      </c>
-      <c r="I86" s="9">
-        <v>864464</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B87" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11">
-        <v>1315331</v>
-      </c>
-      <c r="F87" s="11">
-        <v>426228</v>
-      </c>
-      <c r="G87" s="11">
-        <v>579413</v>
-      </c>
-      <c r="H87" s="11">
-        <v>982531</v>
-      </c>
-      <c r="I87" s="11">
-        <v>756281</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B88" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="C88" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D88" s="9"/>
-      <c r="E88" s="9">
+      <c r="E88" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J88" s="9">
         <v>1412907</v>
       </c>
-      <c r="F88" s="9">
+      <c r="K88" s="9">
         <v>529079</v>
       </c>
-      <c r="G88" s="9">
+      <c r="L88" s="9">
         <v>570841</v>
       </c>
-      <c r="H88" s="9">
+      <c r="M88" s="9">
         <v>1095991</v>
       </c>
-      <c r="I88" s="9">
-        <v>825095</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N88" s="9">
+        <v>825139</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13">
+        <v>0</v>
+      </c>
+      <c r="F89" s="13">
+        <v>0</v>
+      </c>
+      <c r="G89" s="13">
+        <v>0</v>
+      </c>
+      <c r="H89" s="13">
+        <v>0</v>
+      </c>
+      <c r="I89" s="13">
+        <v>0</v>
+      </c>
+      <c r="J89" s="13">
         <v>8065426</v>
       </c>
-      <c r="F89" s="13">
+      <c r="K89" s="13">
         <v>3322521</v>
       </c>
-      <c r="G89" s="13">
+      <c r="L89" s="13">
         <v>3570983</v>
       </c>
-      <c r="H89" s="13">
+      <c r="M89" s="13">
         <v>5561627</v>
       </c>
-      <c r="I89" s="13">
-        <v>4974593</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N89" s="13">
+        <v>4369312</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2300,8 +3330,13 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2310,8 +3345,13 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2320,10 +3360,15 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -2342,8 +3387,23 @@
       <c r="I93" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L93" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M93" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N93" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2352,150 +3412,245 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C95" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J95" s="9">
+        <v>4091381</v>
+      </c>
+      <c r="K95" s="9">
+        <v>721193</v>
+      </c>
+      <c r="L95" s="9">
+        <v>1823823</v>
+      </c>
+      <c r="M95" s="9">
+        <v>2106007</v>
+      </c>
+      <c r="N95" s="9">
+        <v>1963214</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B96" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I96" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J96" s="11">
+        <v>266782</v>
+      </c>
+      <c r="K96" s="11">
+        <v>118687</v>
+      </c>
+      <c r="L96" s="11">
+        <v>117410</v>
+      </c>
+      <c r="M96" s="11">
+        <v>124745</v>
+      </c>
+      <c r="N96" s="11">
+        <v>134080</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B97" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I97" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J97" s="9">
+        <v>1000230</v>
+      </c>
+      <c r="K97" s="9">
+        <v>1372397</v>
+      </c>
+      <c r="L97" s="9">
+        <v>768695</v>
+      </c>
+      <c r="M97" s="9">
+        <v>867320</v>
+      </c>
+      <c r="N97" s="9">
+        <v>849390</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B98" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H98" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I98" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J98" s="11">
+        <v>1144376</v>
+      </c>
+      <c r="K98" s="11">
+        <v>491545</v>
+      </c>
+      <c r="L98" s="11">
+        <v>598299</v>
+      </c>
+      <c r="M98" s="11">
+        <v>782318</v>
+      </c>
+      <c r="N98" s="11">
+        <v>736889</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B99" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9">
-        <v>4091381</v>
-      </c>
-      <c r="F95" s="9">
-        <v>721193</v>
-      </c>
-      <c r="G95" s="9">
-        <v>1823823</v>
-      </c>
-      <c r="H95" s="9">
-        <v>2106007</v>
-      </c>
-      <c r="I95" s="9">
-        <v>2229389</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B96" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11">
-        <v>266782</v>
-      </c>
-      <c r="F96" s="11">
-        <v>118687</v>
-      </c>
-      <c r="G96" s="11">
-        <v>117410</v>
-      </c>
-      <c r="H96" s="11">
-        <v>124745</v>
-      </c>
-      <c r="I96" s="11">
-        <v>134080</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B97" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9">
-        <v>1000230</v>
-      </c>
-      <c r="F97" s="9">
-        <v>1372397</v>
-      </c>
-      <c r="G97" s="9">
-        <v>768695</v>
-      </c>
-      <c r="H97" s="9">
-        <v>867320</v>
-      </c>
-      <c r="I97" s="9">
-        <v>849390</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B98" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11">
-        <v>1144376</v>
-      </c>
-      <c r="F98" s="11">
-        <v>491545</v>
-      </c>
-      <c r="G98" s="11">
-        <v>598299</v>
-      </c>
-      <c r="H98" s="11">
-        <v>782318</v>
-      </c>
-      <c r="I98" s="11">
-        <v>736238</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B99" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="C99" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D99" s="9"/>
-      <c r="E99" s="9">
+      <c r="E99" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I99" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J99" s="9">
         <v>1827101</v>
       </c>
-      <c r="F99" s="9">
+      <c r="K99" s="9">
         <v>98168</v>
       </c>
-      <c r="G99" s="9">
+      <c r="L99" s="9">
         <v>670616</v>
       </c>
-      <c r="H99" s="9">
+      <c r="M99" s="9">
         <v>853582</v>
       </c>
-      <c r="I99" s="9">
+      <c r="N99" s="9">
         <v>767238</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
       <c r="E100" s="13">
+        <v>0</v>
+      </c>
+      <c r="F100" s="13">
+        <v>0</v>
+      </c>
+      <c r="G100" s="13">
+        <v>0</v>
+      </c>
+      <c r="H100" s="13">
+        <v>0</v>
+      </c>
+      <c r="I100" s="13">
+        <v>0</v>
+      </c>
+      <c r="J100" s="13">
         <v>8329870</v>
       </c>
-      <c r="F100" s="13">
+      <c r="K100" s="13">
         <v>2801990</v>
       </c>
-      <c r="G100" s="13">
+      <c r="L100" s="13">
         <v>3978843</v>
       </c>
-      <c r="H100" s="13">
+      <c r="M100" s="13">
         <v>4733972</v>
       </c>
-      <c r="I100" s="13">
-        <v>4716335</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N100" s="13">
+        <v>4450811</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2504,8 +3659,13 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2514,8 +3674,13 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2524,10 +3689,15 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B104" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -2546,8 +3716,23 @@
       <c r="I104" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K104" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L104" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M104" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N104" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2556,150 +3741,245 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C106" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H106" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I106" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J106" s="9">
+        <v>293907</v>
+      </c>
+      <c r="K106" s="9">
+        <v>586716</v>
+      </c>
+      <c r="L106" s="9">
+        <v>585257</v>
+      </c>
+      <c r="M106" s="9">
+        <v>934875</v>
+      </c>
+      <c r="N106" s="9">
+        <v>780983</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B107" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H107" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I107" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J107" s="11">
+        <v>108173</v>
+      </c>
+      <c r="K107" s="11">
+        <v>242990</v>
+      </c>
+      <c r="L107" s="11">
+        <v>125580</v>
+      </c>
+      <c r="M107" s="11">
+        <v>79754</v>
+      </c>
+      <c r="N107" s="11">
+        <v>58709</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B108" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G108" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H108" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I108" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J108" s="9">
+        <v>772090</v>
+      </c>
+      <c r="K108" s="9">
+        <v>213594</v>
+      </c>
+      <c r="L108" s="9">
+        <v>43264</v>
+      </c>
+      <c r="M108" s="9">
+        <v>124505</v>
+      </c>
+      <c r="N108" s="9">
+        <v>139579</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B109" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F109" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G109" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H109" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I109" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J109" s="11">
+        <v>184855</v>
+      </c>
+      <c r="K109" s="11">
+        <v>157392</v>
+      </c>
+      <c r="L109" s="11">
+        <v>138506</v>
+      </c>
+      <c r="M109" s="11">
+        <v>338719</v>
+      </c>
+      <c r="N109" s="11">
+        <v>359182</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B110" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9">
-        <v>293907</v>
-      </c>
-      <c r="F106" s="9">
-        <v>586716</v>
-      </c>
-      <c r="G106" s="9">
-        <v>585257</v>
-      </c>
-      <c r="H106" s="9">
-        <v>934875</v>
-      </c>
-      <c r="I106" s="9">
-        <v>1121263</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B107" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11">
-        <v>108173</v>
-      </c>
-      <c r="F107" s="11">
-        <v>242990</v>
-      </c>
-      <c r="G107" s="11">
-        <v>125580</v>
-      </c>
-      <c r="H107" s="11">
-        <v>79754</v>
-      </c>
-      <c r="I107" s="11">
-        <v>58650</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B108" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9">
-        <v>772090</v>
-      </c>
-      <c r="F108" s="9">
-        <v>213594</v>
-      </c>
-      <c r="G108" s="9">
-        <v>43264</v>
-      </c>
-      <c r="H108" s="9">
-        <v>124505</v>
-      </c>
-      <c r="I108" s="9">
-        <v>139579</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B109" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11">
-        <v>184855</v>
-      </c>
-      <c r="F109" s="11">
-        <v>157392</v>
-      </c>
-      <c r="G109" s="11">
-        <v>138506</v>
-      </c>
-      <c r="H109" s="11">
-        <v>338719</v>
-      </c>
-      <c r="I109" s="11">
-        <v>358762</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B110" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="C110" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D110" s="9"/>
-      <c r="E110" s="9">
+      <c r="E110" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G110" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H110" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I110" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J110" s="9">
         <v>123258</v>
       </c>
-      <c r="F110" s="9">
+      <c r="K110" s="9">
         <v>491578</v>
       </c>
-      <c r="G110" s="9">
+      <c r="L110" s="9">
         <v>391803</v>
       </c>
-      <c r="H110" s="9">
+      <c r="M110" s="9">
         <v>634212</v>
       </c>
-      <c r="I110" s="9">
-        <v>692069</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N110" s="9">
+        <v>692113</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13">
+        <v>0</v>
+      </c>
+      <c r="F111" s="13">
+        <v>0</v>
+      </c>
+      <c r="G111" s="13">
+        <v>0</v>
+      </c>
+      <c r="H111" s="13">
+        <v>0</v>
+      </c>
+      <c r="I111" s="13">
+        <v>0</v>
+      </c>
+      <c r="J111" s="13">
         <v>1482283</v>
       </c>
-      <c r="F111" s="13">
+      <c r="K111" s="13">
         <v>1692270</v>
       </c>
-      <c r="G111" s="13">
+      <c r="L111" s="13">
         <v>1284410</v>
       </c>
-      <c r="H111" s="13">
+      <c r="M111" s="13">
         <v>2112065</v>
       </c>
-      <c r="I111" s="13">
-        <v>2370323</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N111" s="13">
+        <v>2030566</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2708,8 +3988,13 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2718,8 +4003,13 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2728,10 +4018,15 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+    </row>
+    <row r="115" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -2750,8 +4045,23 @@
       <c r="I115" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J115" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K115" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L115" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M115" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N115" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2760,128 +4070,208 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F117" s="9">
+        <v>15</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I117" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J117" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K117" s="9">
         <v>482605911</v>
       </c>
-      <c r="G117" s="9">
+      <c r="L117" s="9">
         <v>464909667</v>
       </c>
-      <c r="H117" s="9">
+      <c r="M117" s="9">
         <v>493887764</v>
       </c>
-      <c r="I117" s="9">
+      <c r="N117" s="9">
         <v>503162002</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F118" s="11">
+        <v>15</v>
+      </c>
+      <c r="F118" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G118" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H118" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I118" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J118" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K118" s="11">
         <v>353506536</v>
       </c>
-      <c r="G118" s="11">
+      <c r="L118" s="11">
         <v>442604736</v>
       </c>
-      <c r="H118" s="11">
+      <c r="M118" s="11">
         <v>413092105</v>
       </c>
-      <c r="I118" s="11">
+      <c r="N118" s="11">
         <v>415385417</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F119" s="9">
+        <v>15</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I119" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K119" s="9">
         <v>2325572289</v>
       </c>
-      <c r="G119" s="9">
+      <c r="L119" s="9">
         <v>1473062069</v>
       </c>
-      <c r="H119" s="9">
+      <c r="M119" s="9">
         <v>1881043478</v>
       </c>
-      <c r="I119" s="9">
+      <c r="N119" s="9">
         <v>1537098765</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F120" s="11">
+        <v>15</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H120" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I120" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J120" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K120" s="11">
         <v>278815988</v>
       </c>
-      <c r="G120" s="11">
+      <c r="L120" s="11">
         <v>286688525</v>
       </c>
-      <c r="H120" s="11">
+      <c r="M120" s="11">
         <v>374340541</v>
       </c>
-      <c r="I120" s="11">
+      <c r="N120" s="11">
         <v>432039541</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F121" s="9">
+        <v>15</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H121" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I121" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J121" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K121" s="9">
         <v>167016260</v>
       </c>
-      <c r="G121" s="9">
+      <c r="L121" s="9">
         <v>249658710</v>
       </c>
-      <c r="H121" s="9">
+      <c r="M121" s="9">
         <v>225174138</v>
       </c>
-      <c r="I121" s="9">
+      <c r="N121" s="9">
         <v>345243332</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2890,8 +4280,13 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -2900,8 +4295,13 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -2910,10 +4310,15 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
-    </row>
-    <row r="125" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+    </row>
+    <row r="125" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B125" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -2932,8 +4337,23 @@
       <c r="I125" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J125" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K125" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L125" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M125" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N125" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -2942,128 +4362,208 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D127" s="9"/>
-      <c r="E127" s="9">
+      <c r="E127" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G127" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H127" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I127" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J127" s="9">
         <v>371431874</v>
       </c>
-      <c r="F127" s="9">
+      <c r="K127" s="9">
         <v>481891213</v>
       </c>
-      <c r="G127" s="9">
+      <c r="L127" s="9">
         <v>519192023</v>
       </c>
-      <c r="H127" s="9">
+      <c r="M127" s="9">
         <v>548008257</v>
       </c>
-      <c r="I127" s="9">
-        <v>703078289</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N127" s="9">
+        <v>526577998</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D128" s="11"/>
-      <c r="E128" s="11">
+      <c r="E128" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F128" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G128" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H128" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I128" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J128" s="11">
         <v>388328014</v>
       </c>
-      <c r="F128" s="11">
+      <c r="K128" s="11">
         <v>497903114</v>
       </c>
-      <c r="G128" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H128" s="11">
+      <c r="L128" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M128" s="11">
         <v>580286765</v>
       </c>
-      <c r="I128" s="11">
-        <v>491200000</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N128" s="11">
+        <v>491456522</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D129" s="9"/>
-      <c r="E129" s="9">
+      <c r="E129" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G129" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H129" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I129" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J129" s="9">
         <v>1277428682</v>
       </c>
-      <c r="F129" s="9">
+      <c r="K129" s="9">
         <v>1556578544</v>
       </c>
-      <c r="G129" s="9">
+      <c r="L129" s="9">
         <v>1676092437</v>
       </c>
-      <c r="H129" s="9">
+      <c r="M129" s="9">
         <v>1681845745</v>
       </c>
-      <c r="I129" s="9">
+      <c r="N129" s="9">
         <v>1711809901</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D130" s="11"/>
-      <c r="E130" s="11">
+      <c r="E130" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F130" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G130" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H130" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I130" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J130" s="11">
         <v>228952306</v>
       </c>
-      <c r="F130" s="11">
+      <c r="K130" s="11">
         <v>291537620</v>
       </c>
-      <c r="G130" s="11">
+      <c r="L130" s="11">
         <v>349043976</v>
       </c>
-      <c r="H130" s="11">
+      <c r="M130" s="11">
         <v>437068950</v>
       </c>
-      <c r="I130" s="11">
-        <v>392873247</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N130" s="11">
+        <v>393429610</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D131" s="9"/>
-      <c r="E131" s="9">
+      <c r="E131" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H131" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I131" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J131" s="9">
         <v>350423363</v>
       </c>
-      <c r="F131" s="9">
+      <c r="K131" s="9">
         <v>420237490</v>
       </c>
-      <c r="G131" s="9">
+      <c r="L131" s="9">
         <v>457404647</v>
       </c>
-      <c r="H131" s="9">
+      <c r="M131" s="9">
         <v>578664731</v>
       </c>
-      <c r="I131" s="9">
-        <v>586838549</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N131" s="9">
+        <v>586869844</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3072,8 +4572,13 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3082,8 +4587,13 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -3092,10 +4602,15 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
-    </row>
-    <row r="135" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+    </row>
+    <row r="135" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B135" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -3114,8 +4629,23 @@
       <c r="I135" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J135" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K135" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L135" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M135" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N135" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3124,128 +4654,208 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D137" s="9"/>
-      <c r="E137" s="9">
+      <c r="E137" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G137" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H137" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I137" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J137" s="9">
         <v>295748229</v>
       </c>
-      <c r="F137" s="9">
+      <c r="K137" s="9">
         <v>-2548385159</v>
       </c>
-      <c r="G137" s="9">
+      <c r="L137" s="9">
         <v>508453582</v>
       </c>
-      <c r="H137" s="9">
+      <c r="M137" s="9">
         <v>553048057</v>
       </c>
-      <c r="I137" s="9">
-        <v>601237594</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N137" s="9">
+        <v>529453614</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D138" s="11"/>
-      <c r="E138" s="11">
+      <c r="E138" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F138" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G138" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H138" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I138" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J138" s="11">
         <v>356660428</v>
       </c>
-      <c r="F138" s="11">
+      <c r="K138" s="11">
         <v>454739464</v>
       </c>
-      <c r="G138" s="11">
+      <c r="L138" s="11">
         <v>479224490</v>
       </c>
-      <c r="H138" s="11">
+      <c r="M138" s="11">
         <v>503004032</v>
       </c>
-      <c r="I138" s="11">
+      <c r="N138" s="11">
         <v>511755725</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D139" s="9"/>
-      <c r="E139" s="9">
+      <c r="E139" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G139" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H139" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I139" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J139" s="9">
         <v>676745602</v>
       </c>
-      <c r="F139" s="9">
+      <c r="K139" s="9">
         <v>4470348534</v>
       </c>
-      <c r="G139" s="9">
+      <c r="L139" s="9">
         <v>1604791232</v>
       </c>
-      <c r="H139" s="9">
+      <c r="M139" s="9">
         <v>1714071146</v>
       </c>
-      <c r="I139" s="9">
+      <c r="N139" s="9">
         <v>1751319588</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D140" s="11"/>
-      <c r="E140" s="11">
+      <c r="E140" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F140" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G140" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H140" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I140" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J140" s="11">
         <v>188778621</v>
       </c>
-      <c r="F140" s="11">
+      <c r="K140" s="11">
         <v>551677890</v>
       </c>
-      <c r="G140" s="11">
+      <c r="L140" s="11">
         <v>325339315</v>
       </c>
-      <c r="H140" s="11">
+      <c r="M140" s="11">
         <v>426563795</v>
       </c>
-      <c r="I140" s="11">
-        <v>407436635</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N140" s="11">
+        <v>407796901</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D141" s="9"/>
-      <c r="E141" s="9">
+      <c r="E141" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G141" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H141" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I141" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J141" s="9">
         <v>338728402</v>
       </c>
-      <c r="F141" s="9">
+      <c r="K141" s="9">
         <v>458728972</v>
       </c>
-      <c r="G141" s="9">
+      <c r="L141" s="9">
         <v>454039269</v>
       </c>
-      <c r="H141" s="9">
+      <c r="M141" s="9">
         <v>475003895</v>
       </c>
-      <c r="I141" s="9">
+      <c r="N141" s="9">
         <v>562903888</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3254,8 +4864,13 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3264,8 +4879,13 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3274,10 +4894,15 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
-    </row>
-    <row r="145" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+    </row>
+    <row r="145" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B145" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
@@ -3296,8 +4921,23 @@
       <c r="I145" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J145" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K145" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L145" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M145" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N145" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -3306,128 +4946,208 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D147" s="9"/>
-      <c r="E147" s="9">
+      <c r="E147" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G147" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H147" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I147" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J147" s="9">
         <v>482605911</v>
       </c>
-      <c r="F147" s="9">
+      <c r="K147" s="9">
         <v>464909667</v>
       </c>
-      <c r="G147" s="9">
+      <c r="L147" s="9">
         <v>493887764</v>
       </c>
-      <c r="H147" s="9">
+      <c r="M147" s="9">
         <v>503162002</v>
       </c>
-      <c r="I147" s="9">
-        <v>706975410</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N147" s="9">
+        <v>492423077</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D148" s="11"/>
-      <c r="E148" s="11">
+      <c r="E148" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F148" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G148" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H148" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I148" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J148" s="11">
         <v>353506536</v>
       </c>
-      <c r="F148" s="11">
+      <c r="K148" s="11">
         <v>442604736</v>
       </c>
-      <c r="G148" s="11">
+      <c r="L148" s="11">
         <v>413092105</v>
       </c>
-      <c r="H148" s="11">
+      <c r="M148" s="11">
         <v>415385417</v>
       </c>
-      <c r="I148" s="11">
-        <v>366562500</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N148" s="11">
+        <v>366931250</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D149" s="9"/>
-      <c r="E149" s="9">
+      <c r="E149" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G149" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H149" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I149" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J149" s="9">
         <v>2325572289</v>
       </c>
-      <c r="F149" s="9">
+      <c r="K149" s="9">
         <v>1473062069</v>
       </c>
-      <c r="G149" s="9">
+      <c r="L149" s="9">
         <v>1881043478</v>
       </c>
-      <c r="H149" s="9">
+      <c r="M149" s="9">
         <v>1537098765</v>
       </c>
-      <c r="I149" s="9">
+      <c r="N149" s="9">
         <v>1381970297</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D150" s="11"/>
-      <c r="E150" s="11">
+      <c r="E150" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F150" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G150" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H150" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I150" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J150" s="11">
         <v>278815988</v>
       </c>
-      <c r="F150" s="11">
+      <c r="K150" s="11">
         <v>286688525</v>
       </c>
-      <c r="G150" s="11">
+      <c r="L150" s="11">
         <v>374340541</v>
       </c>
-      <c r="H150" s="11">
+      <c r="M150" s="11">
         <v>432039541</v>
       </c>
-      <c r="I150" s="11">
-        <v>397740577</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N150" s="11">
+        <v>398206208</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D151" s="9"/>
-      <c r="E151" s="9">
+      <c r="E151" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G151" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H151" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I151" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J151" s="9">
         <v>167016260</v>
       </c>
-      <c r="F151" s="9">
+      <c r="K151" s="9">
         <v>249658710</v>
       </c>
-      <c r="G151" s="9">
+      <c r="L151" s="9">
         <v>225174138</v>
       </c>
-      <c r="H151" s="9">
+      <c r="M151" s="9">
         <v>345243332</v>
       </c>
-      <c r="I151" s="9">
-        <v>368121809</v>
-      </c>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N151" s="9">
+        <v>368145213</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3436,8 +5156,13 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3446,8 +5171,13 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3456,10 +5186,15 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
-    </row>
-    <row r="155" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
+    </row>
+    <row r="155" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B155" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
@@ -3478,8 +5213,23 @@
       <c r="I155" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J155" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K155" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L155" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M155" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N155" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -3488,247 +5238,417 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
-      <c r="E157" s="9">
-        <v>0</v>
-      </c>
-      <c r="F157" s="9">
-        <v>0</v>
-      </c>
-      <c r="G157" s="9">
-        <v>0</v>
-      </c>
-      <c r="H157" s="9">
-        <v>0</v>
-      </c>
-      <c r="I157" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E157" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G157" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H157" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I157" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J157" s="9">
+        <v>0</v>
+      </c>
+      <c r="K157" s="9">
+        <v>0</v>
+      </c>
+      <c r="L157" s="9">
+        <v>0</v>
+      </c>
+      <c r="M157" s="9">
+        <v>0</v>
+      </c>
+      <c r="N157" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
-      <c r="E158" s="11">
-        <v>0</v>
-      </c>
-      <c r="F158" s="11">
-        <v>0</v>
-      </c>
-      <c r="G158" s="11">
-        <v>0</v>
-      </c>
-      <c r="H158" s="11">
-        <v>0</v>
-      </c>
-      <c r="I158" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E158" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F158" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G158" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H158" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I158" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J158" s="11">
+        <v>0</v>
+      </c>
+      <c r="K158" s="11">
+        <v>0</v>
+      </c>
+      <c r="L158" s="11">
+        <v>0</v>
+      </c>
+      <c r="M158" s="11">
+        <v>0</v>
+      </c>
+      <c r="N158" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
-      <c r="E159" s="9">
-        <v>0</v>
-      </c>
-      <c r="F159" s="9">
-        <v>0</v>
-      </c>
-      <c r="G159" s="9">
-        <v>0</v>
-      </c>
-      <c r="H159" s="9">
-        <v>0</v>
-      </c>
-      <c r="I159" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E159" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F159" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G159" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H159" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I159" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J159" s="9">
+        <v>0</v>
+      </c>
+      <c r="K159" s="9">
+        <v>0</v>
+      </c>
+      <c r="L159" s="9">
+        <v>0</v>
+      </c>
+      <c r="M159" s="9">
+        <v>0</v>
+      </c>
+      <c r="N159" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
-      <c r="E160" s="11">
-        <v>0</v>
-      </c>
-      <c r="F160" s="11">
-        <v>0</v>
-      </c>
-      <c r="G160" s="11">
-        <v>0</v>
-      </c>
-      <c r="H160" s="11">
-        <v>0</v>
-      </c>
-      <c r="I160" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E160" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F160" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G160" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H160" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I160" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J160" s="11">
+        <v>0</v>
+      </c>
+      <c r="K160" s="11">
+        <v>0</v>
+      </c>
+      <c r="L160" s="11">
+        <v>0</v>
+      </c>
+      <c r="M160" s="11">
+        <v>0</v>
+      </c>
+      <c r="N160" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
-      <c r="E161" s="9">
+      <c r="E161" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G161" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H161" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I161" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J161" s="9">
         <v>7003</v>
       </c>
-      <c r="F161" s="9">
+      <c r="K161" s="9">
         <v>47624</v>
       </c>
-      <c r="G161" s="9">
+      <c r="L161" s="9">
         <v>1253</v>
       </c>
-      <c r="H161" s="9">
+      <c r="M161" s="9">
         <v>-399</v>
       </c>
-      <c r="I161" s="9">
+      <c r="N161" s="9">
         <v>15971</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
-      <c r="E162" s="11">
+      <c r="E162" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F162" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G162" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H162" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I162" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J162" s="11">
         <v>80000</v>
       </c>
-      <c r="F162" s="11">
+      <c r="K162" s="11">
         <v>81317</v>
       </c>
-      <c r="G162" s="11">
+      <c r="L162" s="11">
         <v>78607</v>
       </c>
-      <c r="H162" s="11">
+      <c r="M162" s="11">
         <v>56469</v>
       </c>
-      <c r="I162" s="11">
-        <v>66709</v>
-      </c>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N162" s="11">
+        <v>67367</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
-      <c r="E163" s="9">
+      <c r="E163" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F163" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G163" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H163" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I163" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J163" s="9">
         <v>59702</v>
       </c>
-      <c r="F163" s="9">
+      <c r="K163" s="9">
         <v>7927</v>
       </c>
-      <c r="G163" s="9">
+      <c r="L163" s="9">
         <v>29041</v>
       </c>
-      <c r="H163" s="9">
+      <c r="M163" s="9">
         <v>30126</v>
       </c>
-      <c r="I163" s="9">
+      <c r="N163" s="9">
         <v>31756</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C164" s="11"/>
       <c r="D164" s="11"/>
-      <c r="E164" s="11">
+      <c r="E164" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F164" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G164" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H164" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I164" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J164" s="11">
         <v>430000</v>
       </c>
-      <c r="F164" s="11">
+      <c r="K164" s="11">
         <v>166781</v>
       </c>
-      <c r="G164" s="11">
+      <c r="L164" s="11">
         <v>251388</v>
       </c>
-      <c r="H164" s="11">
+      <c r="M164" s="11">
         <v>228514</v>
       </c>
-      <c r="I164" s="11">
+      <c r="N164" s="11">
         <v>225732</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
-      <c r="E165" s="9">
-        <v>0</v>
-      </c>
-      <c r="F165" s="9">
-        <v>0</v>
-      </c>
-      <c r="G165" s="9">
-        <v>0</v>
-      </c>
-      <c r="H165" s="9">
-        <v>0</v>
-      </c>
-      <c r="I165" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E165" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F165" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G165" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H165" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I165" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J165" s="9">
+        <v>0</v>
+      </c>
+      <c r="K165" s="9">
+        <v>0</v>
+      </c>
+      <c r="L165" s="9">
+        <v>0</v>
+      </c>
+      <c r="M165" s="9">
+        <v>0</v>
+      </c>
+      <c r="N165" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C166" s="11"/>
       <c r="D166" s="11"/>
-      <c r="E166" s="11">
+      <c r="E166" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F166" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G166" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H166" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I166" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J166" s="11">
         <v>277084</v>
       </c>
-      <c r="F166" s="11">
+      <c r="K166" s="11">
         <v>114430</v>
       </c>
-      <c r="G166" s="11">
+      <c r="L166" s="11">
         <v>117193</v>
       </c>
-      <c r="H166" s="11">
+      <c r="M166" s="11">
         <v>163719</v>
       </c>
-      <c r="I166" s="11">
-        <v>74011</v>
-      </c>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N166" s="11">
+        <v>82485</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="14" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C167" s="15"/>
       <c r="D167" s="15"/>
       <c r="E167" s="15">
+        <v>0</v>
+      </c>
+      <c r="F167" s="15">
+        <v>0</v>
+      </c>
+      <c r="G167" s="15">
+        <v>0</v>
+      </c>
+      <c r="H167" s="15">
+        <v>0</v>
+      </c>
+      <c r="I167" s="15">
+        <v>0</v>
+      </c>
+      <c r="J167" s="15">
         <v>853789</v>
       </c>
-      <c r="F167" s="15">
+      <c r="K167" s="15">
         <v>418079</v>
       </c>
-      <c r="G167" s="15">
+      <c r="L167" s="15">
         <v>477482</v>
       </c>
-      <c r="H167" s="15">
+      <c r="M167" s="15">
         <v>478429</v>
       </c>
-      <c r="I167" s="15">
-        <v>414179</v>
+      <c r="N167" s="15">
+        <v>423311</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/lastic/parta/cost/quarterly.xlsx
+++ b/database/industries/lastic/parta/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\parta\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\parta\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07ABA92F-9AB7-49DC-834C-C60A17183DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10CBDD7-FB35-4E3E-A1E4-5496D6B86B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="60">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -659,12 +659,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -679,7 +679,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -696,7 +696,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -713,7 +713,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -728,7 +728,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -745,7 +745,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -762,7 +762,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -777,7 +777,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -814,7 +814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -829,7 +829,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
@@ -850,8 +850,8 @@
       <c r="I10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="9">
-        <v>8329870</v>
+      <c r="J10" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="K10" s="9">
         <v>2801990</v>
@@ -866,7 +866,7 @@
         <v>4450811</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -887,8 +887,8 @@
       <c r="I11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="11">
-        <v>471998</v>
+      <c r="J11" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="K11" s="11">
         <v>155709</v>
@@ -903,7 +903,7 @@
         <v>251445</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>17</v>
       </c>
@@ -924,8 +924,8 @@
       <c r="I12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="9">
-        <v>853789</v>
+      <c r="J12" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="K12" s="9">
         <v>418079</v>
@@ -940,7 +940,7 @@
         <v>423311</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>18</v>
       </c>
@@ -961,8 +961,8 @@
       <c r="I13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="13">
-        <v>9655657</v>
+      <c r="J13" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="K13" s="13">
         <v>3375778</v>
@@ -977,7 +977,7 @@
         <v>5125567</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>19</v>
       </c>
@@ -998,8 +998,8 @@
       <c r="I14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="9">
-        <v>0</v>
+      <c r="J14" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="K14" s="9">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
@@ -1035,8 +1035,8 @@
       <c r="I15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="13">
-        <v>9655657</v>
+      <c r="J15" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="K15" s="13">
         <v>3375778</v>
@@ -1051,7 +1051,7 @@
         <v>5125567</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>21</v>
       </c>
@@ -1072,8 +1072,8 @@
       <c r="I16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="9">
-        <v>-440862</v>
+      <c r="J16" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="K16" s="9">
         <v>351960</v>
@@ -1088,7 +1088,7 @@
         <v>-26267</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -1109,8 +1109,8 @@
       <c r="I17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="11">
-        <v>0</v>
+      <c r="J17" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="K17" s="11">
         <v>0</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>23</v>
       </c>
@@ -1146,8 +1146,8 @@
       <c r="I18" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="15">
-        <v>9214795</v>
+      <c r="J18" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="K18" s="15">
         <v>3727738</v>
@@ -1162,7 +1162,7 @@
         <v>5099300</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
@@ -1183,8 +1183,8 @@
       <c r="I19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="11">
-        <v>664228</v>
+      <c r="J19" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="K19" s="11">
         <v>1313784</v>
@@ -1199,7 +1199,7 @@
         <v>918476</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>25</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>-729077</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>26</v>
       </c>
@@ -1257,8 +1257,8 @@
       <c r="I21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="13">
-        <v>8565239</v>
+      <c r="J21" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="K21" s="13">
         <v>4055063</v>
@@ -1273,7 +1273,7 @@
         <v>5288699</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>27</v>
       </c>
@@ -1294,8 +1294,8 @@
       <c r="I22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J22" s="9">
-        <v>0</v>
+      <c r="J22" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="K22" s="9">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>401291</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>28</v>
       </c>
@@ -1331,8 +1331,8 @@
       <c r="I23" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J23" s="13">
-        <v>8565239</v>
+      <c r="J23" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="K23" s="13">
         <v>4055063</v>
@@ -1347,7 +1347,7 @@
         <v>5689990</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1362,7 +1362,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1377,7 +1377,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1392,7 +1392,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>29</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1444,7 +1444,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>30</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>33</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>34</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>35</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>18</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1691,7 +1691,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1706,7 +1706,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1721,7 +1721,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>36</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1773,7 +1773,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>30</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>32</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>33</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>34</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>35</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
         <v>18</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>7502</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2020,7 +2020,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2035,7 +2035,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2050,7 +2050,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>37</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2102,7 +2102,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>30</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>3708</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>32</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>33</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>34</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>35</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>18</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>7625</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2349,7 +2349,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2364,7 +2364,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2379,7 +2379,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
         <v>38</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2431,7 +2431,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>30</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>32</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>33</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>34</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>35</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
         <v>18</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>4629</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2678,7 +2678,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2693,7 +2693,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2708,7 +2708,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
         <v>39</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2760,7 +2760,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>30</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>934875</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>32</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>79754</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>33</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>124505</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>34</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>338719</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>35</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>634212</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>18</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>2112065</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3007,7 +3007,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3022,7 +3022,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3037,7 +3037,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B82" s="7" t="s">
         <v>41</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3089,7 +3089,7 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>30</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>1809322</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>32</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>113035</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>33</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>864464</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>34</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>757352</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>35</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>825139</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="12" t="s">
         <v>18</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>4369312</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3336,7 +3336,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3351,7 +3351,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3366,7 +3366,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B93" s="7" t="s">
         <v>42</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3418,7 +3418,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>30</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>1963214</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>32</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>134080</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>33</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>849390</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>34</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>736889</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>35</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>767238</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>18</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>4450811</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -3665,7 +3665,7 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3680,7 +3680,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3695,7 +3695,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B104" s="7" t="s">
         <v>43</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3747,7 +3747,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>30</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>780983</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>32</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>58709</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>33</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>139579</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>34</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>359182</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
         <v>35</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>692113</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="12" t="s">
         <v>18</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>2030566</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -3994,7 +3994,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -4009,7 +4009,7 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -4024,7 +4024,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>44</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4076,7 +4076,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>30</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>503162002</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>32</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>415385417</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>33</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>1537098765</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>34</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>432039541</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>35</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>345243332</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4286,7 +4286,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -4301,7 +4301,7 @@
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -4316,7 +4316,7 @@
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
     </row>
-    <row r="125" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B125" s="7" t="s">
         <v>46</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -4368,7 +4368,7 @@
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>30</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>526577998</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>32</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>491456522</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>33</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>1711809901</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>34</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>393429610</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>35</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>586869844</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4578,7 +4578,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -4593,7 +4593,7 @@
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -4608,7 +4608,7 @@
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
     </row>
-    <row r="135" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B135" s="7" t="s">
         <v>47</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -4660,7 +4660,7 @@
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>30</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>529453614</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>32</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>511755725</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>33</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>1751319588</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>34</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>407796901</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>35</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>562903888</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -4870,7 +4870,7 @@
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -4885,7 +4885,7 @@
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -4900,7 +4900,7 @@
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
     </row>
-    <row r="145" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B145" s="7" t="s">
         <v>48</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -4952,7 +4952,7 @@
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>30</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>492423077</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>32</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>366931250</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>33</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>1381970297</v>
       </c>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>34</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>398206208</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
         <v>35</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>368145213</v>
       </c>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -5162,7 +5162,7 @@
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -5177,7 +5177,7 @@
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -5192,7 +5192,7 @@
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
     </row>
-    <row r="155" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B155" s="7" t="s">
         <v>49</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -5244,7 +5244,7 @@
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>50</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>51</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
         <v>52</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>53</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>54</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>15971</v>
       </c>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>55</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>67367</v>
       </c>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>56</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>31756</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
         <v>57</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>225732</v>
       </c>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
         <v>58</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>59</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>82485</v>
       </c>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="14" t="s">
         <v>18</v>
       </c>
